--- a/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>98399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85411</v>
+        <v>85238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111095</v>
+        <v>110777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5791600762230853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5027166653065203</v>
+        <v>0.50170026850386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6538857341903382</v>
+        <v>0.6520159698656937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -762,19 +762,19 @@
         <v>79483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72258</v>
+        <v>72360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85250</v>
+        <v>84859</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8174607314754584</v>
+        <v>0.8174607314754587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7431607326963948</v>
+        <v>0.744206752152769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8767733889385961</v>
+        <v>0.872756790921993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -783,19 +783,19 @@
         <v>177881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163542</v>
+        <v>162967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>191266</v>
+        <v>192656</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6658979185375453</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6122191150943537</v>
+        <v>0.6100649928914105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7160047397642096</v>
+        <v>0.7212078454882481</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>54114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42705</v>
+        <v>42395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67106</v>
+        <v>67209</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3185080366026536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2513526933244605</v>
+        <v>0.2495330946966428</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3949772957174374</v>
+        <v>0.3955818591264394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -833,19 +833,19 @@
         <v>12935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8107</v>
+        <v>8419</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19117</v>
+        <v>19528</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1330322412236128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08337946719295772</v>
+        <v>0.08658443303014852</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1966164302825735</v>
+        <v>0.2008429842733384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -854,19 +854,19 @@
         <v>67049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54729</v>
+        <v>54621</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81251</v>
+        <v>81654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2509976461016351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2048778800967156</v>
+        <v>0.204472567988331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.30416108880878</v>
+        <v>0.305672929763815</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>11513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6223</v>
+        <v>5728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20726</v>
+        <v>19300</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06776421389265215</v>
+        <v>0.06776421389265214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03663030670853071</v>
+        <v>0.033711315676731</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1219929485415007</v>
+        <v>0.1135985002130653</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -917,19 +917,19 @@
         <v>11513</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6027</v>
+        <v>5808</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20634</v>
+        <v>20824</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04309906266610857</v>
+        <v>0.04309906266610856</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02256135485570836</v>
+        <v>0.02174397505563977</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07724269351476108</v>
+        <v>0.07795610274077293</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>3192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8801</v>
+        <v>8567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01878964699849161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004228255352255946</v>
+        <v>0.004188811118462899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05180271118884814</v>
+        <v>0.05042619958537179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -970,16 +970,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3830</v>
+        <v>3407</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01087757244512512</v>
+        <v>0.01087757244512513</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0393898695069258</v>
+        <v>0.03503687269181055</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -988,19 +988,19 @@
         <v>4250</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1466</v>
+        <v>1298</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10085</v>
+        <v>10462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01590977126225685</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005487315201874034</v>
+        <v>0.004859291493741223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03775195701334452</v>
+        <v>0.03916607194541769</v>
       </c>
     </row>
     <row r="8">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5930</v>
+        <v>5349</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01118568038386109</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06099362250855469</v>
+        <v>0.05501127220337276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5753</v>
+        <v>6479</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00407141885651878</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02153649631581699</v>
+        <v>0.02425250871079435</v>
       </c>
     </row>
     <row r="9">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5460</v>
+        <v>6226</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007121876443832605</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03213649672493039</v>
+        <v>0.03664673021473281</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1101,19 +1101,19 @@
         <v>2668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7144</v>
+        <v>7272</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02744377447194237</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007996510083557519</v>
+        <v>0.007968302705584091</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07347604155633404</v>
+        <v>0.07478609802032561</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1122,19 +1122,19 @@
         <v>3878</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1192</v>
+        <v>1058</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10436</v>
+        <v>9199</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0145187406481125</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004461579445922005</v>
+        <v>0.003961204226648938</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03906653334811715</v>
+        <v>0.03443574055482715</v>
       </c>
     </row>
     <row r="10">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4604</v>
+        <v>4486</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008656149839284741</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02709818527289027</v>
+        <v>0.02640527881419804</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4869</v>
+        <v>5149</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005505441927822789</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01822781902853831</v>
+        <v>0.01927354430792207</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>75995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57502</v>
+        <v>57163</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99015</v>
+        <v>97307</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2924512392435788</v>
+        <v>0.2924512392435787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2212831479157334</v>
+        <v>0.2199794754801139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3810369185475191</v>
+        <v>0.3744663601830791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>79</v>
@@ -1404,19 +1404,19 @@
         <v>67680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55961</v>
+        <v>56432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78033</v>
+        <v>78431</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5507694514506684</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4554040066277951</v>
+        <v>0.4592363478838654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6350189969845113</v>
+        <v>0.6382605661927226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -1425,19 +1425,19 @@
         <v>143675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122312</v>
+        <v>122473</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165309</v>
+        <v>167393</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3753873708830223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3195694982439122</v>
+        <v>0.3199913080127179</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4319118231805949</v>
+        <v>0.4373546357725758</v>
       </c>
     </row>
     <row r="15">
@@ -1454,19 +1454,19 @@
         <v>132335</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113546</v>
+        <v>112250</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153678</v>
+        <v>153427</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5092623450918019</v>
+        <v>0.5092623450918018</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4369566346875472</v>
+        <v>0.4319719261799406</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5913967203614678</v>
+        <v>0.5904312761446073</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -1475,19 +1475,19 @@
         <v>39709</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29882</v>
+        <v>30838</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49968</v>
+        <v>50476</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3231482988962922</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2431736833509478</v>
+        <v>0.2509560761011466</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4066325949404974</v>
+        <v>0.4107655195724592</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>147</v>
@@ -1496,19 +1496,19 @@
         <v>172044</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>149918</v>
+        <v>150817</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>195447</v>
+        <v>195170</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.449508218956685</v>
+        <v>0.4495082189566851</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3916969502976928</v>
+        <v>0.3940472782914138</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5106527257491834</v>
+        <v>0.5099299565137319</v>
       </c>
     </row>
     <row r="16">
@@ -1525,19 +1525,19 @@
         <v>24540</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14974</v>
+        <v>14612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37694</v>
+        <v>39001</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09443689297626569</v>
+        <v>0.09443689297626572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05762562545971355</v>
+        <v>0.05623258191636788</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1450581649189796</v>
+        <v>0.150085779354774</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1546,19 +1546,19 @@
         <v>12198</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6979</v>
+        <v>6540</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22390</v>
+        <v>19799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09926613976487679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05679626412712274</v>
+        <v>0.05322051057928878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1822022830254366</v>
+        <v>0.1611201742494032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1567,19 +1567,19 @@
         <v>36738</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25299</v>
+        <v>25559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51713</v>
+        <v>52270</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09598738004397007</v>
+        <v>0.09598738004397009</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06609860920570332</v>
+        <v>0.06677839271581298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1351125471786961</v>
+        <v>0.1365690733205656</v>
       </c>
     </row>
     <row r="17">
@@ -1596,19 +1596,19 @@
         <v>16993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8287</v>
+        <v>8671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32219</v>
+        <v>32465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06539332324169872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03188895490362456</v>
+        <v>0.03336800116698417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1239893618920675</v>
+        <v>0.1249351464436421</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5676</v>
+        <v>4937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0121363665200252</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04618651218692637</v>
+        <v>0.04017624392015062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1638,19 +1638,19 @@
         <v>18484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9597</v>
+        <v>8906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32396</v>
+        <v>32102</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04829454443068755</v>
+        <v>0.04829454443068756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02507339542798451</v>
+        <v>0.02326836762751065</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0846427827994103</v>
+        <v>0.08387323651382955</v>
       </c>
     </row>
     <row r="18">
@@ -1667,19 +1667,19 @@
         <v>5247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1516</v>
+        <v>1454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15628</v>
+        <v>14212</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02019212655494948</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005834449307375429</v>
+        <v>0.005595246099034502</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06014149516154389</v>
+        <v>0.05469071658545344</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6774</v>
+        <v>5636</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.008947334145454761</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05512708310252465</v>
+        <v>0.04586338008175601</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1709,19 +1709,19 @@
         <v>6347</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1891</v>
+        <v>1865</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15222</v>
+        <v>15745</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01658185232935821</v>
+        <v>0.01658185232935822</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004941037382223725</v>
+        <v>0.004872460280803186</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03977091468661148</v>
+        <v>0.04113699995166732</v>
       </c>
     </row>
     <row r="19">
@@ -1738,19 +1738,19 @@
         <v>4746</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1263</v>
+        <v>1347</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11741</v>
+        <v>12104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01826407289170555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004860282108672677</v>
+        <v>0.005182151662637097</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04518109091434567</v>
+        <v>0.04657780467602846</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2920</v>
+        <v>3659</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005732409222682884</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02376414847015091</v>
+        <v>0.02977534993285085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1780,19 +1780,19 @@
         <v>5450</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1877</v>
+        <v>1946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12696</v>
+        <v>12227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01424063335627672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004903308684924073</v>
+        <v>0.005084780320717062</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03317234890993976</v>
+        <v>0.03194532118134646</v>
       </c>
     </row>
     <row r="20">
@@ -2025,19 +2025,19 @@
         <v>24529</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17221</v>
+        <v>16772</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33898</v>
+        <v>34261</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1324382013959492</v>
+        <v>0.1324382013959493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09298224781814549</v>
+        <v>0.09055437178157164</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1830269575912951</v>
+        <v>0.1849835880391057</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -2046,19 +2046,19 @@
         <v>34243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26610</v>
+        <v>26222</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42666</v>
+        <v>42078</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3857067470277452</v>
+        <v>0.3857067470277451</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2997248443400931</v>
+        <v>0.295361202136426</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4805853711118135</v>
+        <v>0.4739528423932267</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>79</v>
@@ -2067,19 +2067,19 @@
         <v>58772</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47347</v>
+        <v>48232</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>71966</v>
+        <v>72655</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2145036650493844</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1728056574674145</v>
+        <v>0.1760355971903589</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2626590614118353</v>
+        <v>0.2651749622124608</v>
       </c>
     </row>
     <row r="25">
@@ -2096,19 +2096,19 @@
         <v>87045</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73843</v>
+        <v>74399</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99120</v>
+        <v>99277</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4699788129908205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3986961398543358</v>
+        <v>0.4016989620822124</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5351775227567244</v>
+        <v>0.5360241646641514</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2117,19 +2117,19 @@
         <v>31515</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23657</v>
+        <v>24339</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39885</v>
+        <v>39426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3549769435539419</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2664704133988416</v>
+        <v>0.2741486864053294</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4492561290582749</v>
+        <v>0.4440888929854795</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>152</v>
@@ -2138,19 +2138,19 @@
         <v>118559</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103030</v>
+        <v>104858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133979</v>
+        <v>134116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4327152763253957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.376038156601693</v>
+        <v>0.3827099070085098</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4889939439362055</v>
+        <v>0.4894948033188039</v>
       </c>
     </row>
     <row r="26">
@@ -2167,19 +2167,19 @@
         <v>46326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34891</v>
+        <v>35100</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59110</v>
+        <v>58021</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2501273082122571</v>
+        <v>0.2501273082122572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1883876367511833</v>
+        <v>0.1895125392083773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3191527849085511</v>
+        <v>0.3132688642578436</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2188,19 +2188,19 @@
         <v>20360</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13790</v>
+        <v>13633</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29071</v>
+        <v>28722</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2293294667787492</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1553223004176249</v>
+        <v>0.1535626761075159</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3274483975970243</v>
+        <v>0.3235135552094155</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>71</v>
@@ -2209,19 +2209,19 @@
         <v>66686</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53163</v>
+        <v>52331</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>82907</v>
+        <v>80933</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2433882775285465</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1940319798819137</v>
+        <v>0.1909952266601345</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3025937975432352</v>
+        <v>0.2953880787614479</v>
       </c>
     </row>
     <row r="27">
@@ -2238,19 +2238,19 @@
         <v>11076</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5943</v>
+        <v>5791</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18982</v>
+        <v>19279</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05980057350162279</v>
+        <v>0.05980057350162281</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03208878552957316</v>
+        <v>0.03126634084166487</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1024878495957732</v>
+        <v>0.1040947311886036</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5767</v>
+        <v>6521</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01935897879034359</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06495822007926483</v>
+        <v>0.07345203324689638</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -2280,19 +2280,19 @@
         <v>12794</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6887</v>
+        <v>7371</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>21089</v>
+        <v>21472</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.04669646611005424</v>
+        <v>0.04669646611005423</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02513610853674094</v>
+        <v>0.02690329292495906</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07696973025276187</v>
+        <v>0.07836750578079327</v>
       </c>
     </row>
     <row r="28">
@@ -2309,19 +2309,19 @@
         <v>7008</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2900</v>
+        <v>2678</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14462</v>
+        <v>14491</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03783580608813338</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01565652377463489</v>
+        <v>0.01445905150961721</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07808169131819997</v>
+        <v>0.07824180185041837</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4744</v>
+        <v>5760</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01062786384921993</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05343083136901453</v>
+        <v>0.06488015699607314</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2351,19 +2351,19 @@
         <v>7951</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3325</v>
+        <v>3540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15144</v>
+        <v>16243</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02901973937395709</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01213578513344986</v>
+        <v>0.01291959037756953</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05527371880355441</v>
+        <v>0.05928472709514721</v>
       </c>
     </row>
     <row r="29">
@@ -2380,19 +2380,19 @@
         <v>4805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1689</v>
+        <v>1846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10238</v>
+        <v>10608</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02594277947056897</v>
+        <v>0.02594277947056898</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009117998809837033</v>
+        <v>0.009967186963331029</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05527557307811456</v>
+        <v>0.05727509630777164</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2414,19 +2414,19 @@
         <v>4805</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1746</v>
+        <v>1839</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10836</v>
+        <v>11292</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0175366577376072</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00637160143193235</v>
+        <v>0.006712838242782073</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03955077151406904</v>
+        <v>0.04121378631918907</v>
       </c>
     </row>
     <row r="30">
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4542</v>
+        <v>4243</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.004573681000074675</v>
+        <v>0.004573681000074676</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02452087527506129</v>
+        <v>0.02291137035535413</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4350</v>
+        <v>5477</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003091691790014183</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01587570843681152</v>
+        <v>0.01998936907977402</v>
       </c>
     </row>
     <row r="31">
@@ -2509,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4334</v>
+        <v>5004</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.00468812694492087</v>
+        <v>0.004688126944920871</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02340074326362477</v>
+        <v>0.02701633850552796</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4475</v>
+        <v>4343</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003169054331930775</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01633266184128425</v>
+        <v>0.01585231612300961</v>
       </c>
     </row>
     <row r="32">
@@ -2569,19 +2569,19 @@
         <v>2707</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6385</v>
+        <v>6922</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0146147103956523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003348258679261699</v>
+        <v>0.003280287705544815</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0344752727003253</v>
+        <v>0.03737461858585701</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>2707</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6454</v>
+        <v>6975</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009879171753109893</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002245471143120337</v>
+        <v>0.002283520039029574</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02355425700037585</v>
+        <v>0.02545566564525506</v>
       </c>
     </row>
     <row r="33">
@@ -2707,19 +2707,19 @@
         <v>29747</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17798</v>
+        <v>17853</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>52055</v>
+        <v>50493</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1473667290156486</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08817099374093705</v>
+        <v>0.08844370603550722</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.257882948247962</v>
+        <v>0.2501445527536709</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>79</v>
@@ -2728,19 +2728,19 @@
         <v>49362</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39465</v>
+        <v>38953</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>59874</v>
+        <v>59716</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.358642160387301</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2867354532966569</v>
+        <v>0.2830113436760083</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4350157216905165</v>
+        <v>0.4338641584961317</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>102</v>
@@ -2749,19 +2749,19 @@
         <v>79109</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>63376</v>
+        <v>64461</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>101662</v>
+        <v>101539</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2330220959966202</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1866782426718089</v>
+        <v>0.1898735920163642</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2994542664404372</v>
+        <v>0.2990897685136</v>
       </c>
     </row>
     <row r="35">
@@ -2778,19 +2778,19 @@
         <v>97873</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>80074</v>
+        <v>79249</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>118274</v>
+        <v>116669</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4848698467578418</v>
+        <v>0.4848698467578417</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3966928783829909</v>
+        <v>0.3926046900526941</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.58593468852856</v>
+        <v>0.5779865524524775</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>67</v>
@@ -2799,19 +2799,19 @@
         <v>52277</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41756</v>
+        <v>42394</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>63209</v>
+        <v>63989</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3798170629050628</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3033768739573995</v>
+        <v>0.3080117709695569</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.459244054329742</v>
+        <v>0.4649093137285178</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>153</v>
@@ -2820,19 +2820,19 @@
         <v>150150</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>127315</v>
+        <v>129046</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>171004</v>
+        <v>171568</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4422793065570098</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3750157510951004</v>
+        <v>0.3801140698576916</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5037061260029836</v>
+        <v>0.5053680024114356</v>
       </c>
     </row>
     <row r="36">
@@ -2849,19 +2849,19 @@
         <v>49831</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36038</v>
+        <v>35011</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71050</v>
+        <v>67583</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2468676653376126</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1785355263667877</v>
+        <v>0.1734446022356682</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3519844344165337</v>
+        <v>0.334812081088539</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -2870,19 +2870,19 @@
         <v>18571</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10550</v>
+        <v>10464</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30977</v>
+        <v>31412</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1349284147044437</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07664753293517375</v>
+        <v>0.07602355503908817</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2250622362842656</v>
+        <v>0.2282238185755849</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>48</v>
@@ -2891,19 +2891,19 @@
         <v>68403</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>52025</v>
+        <v>47973</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>92700</v>
+        <v>89353</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.201485211115131</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1532423009172913</v>
+        <v>0.141308510127402</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2730535631630786</v>
+        <v>0.2631968833419711</v>
       </c>
     </row>
     <row r="37">
@@ -2920,19 +2920,19 @@
         <v>12558</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5553</v>
+        <v>5719</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23802</v>
+        <v>24913</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06221448073190375</v>
+        <v>0.06221448073190372</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02751015959484142</v>
+        <v>0.02833358047555518</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1179162173212708</v>
+        <v>0.1234226898451527</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -2941,19 +2941,19 @@
         <v>5849</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1942</v>
+        <v>1970</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13967</v>
+        <v>13656</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04249474762503959</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01411034981752321</v>
+        <v>0.01431043996054512</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.101474454371452</v>
+        <v>0.09921993815663255</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -2962,19 +2962,19 @@
         <v>18407</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10140</v>
+        <v>9868</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32391</v>
+        <v>32081</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05421969891998549</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02986881878801568</v>
+        <v>0.02906631509338847</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.095410475165048</v>
+        <v>0.0944984515349903</v>
       </c>
     </row>
     <row r="38">
@@ -2991,19 +2991,19 @@
         <v>3737</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>16167</v>
+        <v>14073</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01851335470199018</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003065556418053365</v>
+        <v>0.003001474908743498</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08009357881149198</v>
+        <v>0.06971779365767754</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -3012,19 +3012,19 @@
         <v>7332</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2613</v>
+        <v>2707</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16576</v>
+        <v>15899</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05326912809260119</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01898171726140866</v>
+        <v>0.01966699456379682</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1204336992593229</v>
+        <v>0.1155163278054377</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -3033,19 +3033,19 @@
         <v>11069</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5064</v>
+        <v>5391</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>21980</v>
+        <v>23023</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03260405377264281</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01491579840934203</v>
+        <v>0.01588001388729579</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06474479988544035</v>
+        <v>0.06781579623027617</v>
       </c>
     </row>
     <row r="39">
@@ -3062,19 +3062,19 @@
         <v>5964</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>24203</v>
+        <v>24340</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02954693251212112</v>
+        <v>0.02954693251212111</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.004320440990602047</v>
+        <v>0.004504515044076254</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1199044124812509</v>
+        <v>0.1205793198316882</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -3083,19 +3083,19 @@
         <v>3247</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>935</v>
+        <v>910</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9733</v>
+        <v>9253</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0235929970561305</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.006794389510909532</v>
+        <v>0.00661182409439222</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.07071359461611974</v>
+        <v>0.0672258590214662</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>7</v>
@@ -3104,19 +3104,19 @@
         <v>9211</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3124</v>
+        <v>3352</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>24921</v>
+        <v>26086</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02713308570015184</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.00920339993997874</v>
+        <v>0.00987445345269604</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.07340623809853103</v>
+        <v>0.07683921718972904</v>
       </c>
     </row>
     <row r="40">
@@ -3183,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3383</v>
+        <v>3288</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.003267028529490271</v>
+        <v>0.00326702852949027</v>
       </c>
       <c r="H41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01676166746072843</v>
+        <v>0.01628786009547287</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3706</v>
+        <v>3205</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.001942508561342472</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01091734911292357</v>
+        <v>0.009440098428440557</v>
       </c>
     </row>
     <row r="42">
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5008</v>
+        <v>5225</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.007353962413391701</v>
+        <v>0.0073539624133917</v>
       </c>
       <c r="H42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02480872743332389</v>
+        <v>0.02588398253032303</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3669</v>
+        <v>3293</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.007255489229421481</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02665973428535245</v>
+        <v>0.02392693398332331</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -3285,19 +3285,19 @@
         <v>2483</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6264</v>
+        <v>6518</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.007314039377116287</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.001829720597992144</v>
+        <v>0.001878608637828657</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01845197161020355</v>
+        <v>0.01919809302429805</v>
       </c>
     </row>
     <row r="43">
@@ -3389,19 +3389,19 @@
         <v>3363</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1217</v>
+        <v>1180</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7272</v>
+        <v>7097</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09852365116984704</v>
+        <v>0.09852365116984703</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03564938473132508</v>
+        <v>0.03456677254716371</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2130246698898367</v>
+        <v>0.2079028097652428</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>6524</v>
+        <v>6243</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2062787091679602</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6016001263568658</v>
+        <v>0.5756563217120666</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -3431,19 +3431,19 @@
         <v>5600</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2494</v>
+        <v>2611</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11143</v>
+        <v>12011</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1245021468480406</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05545079713799727</v>
+        <v>0.05805355673108788</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2477157634538946</v>
+        <v>0.2670210887196476</v>
       </c>
     </row>
     <row r="45">
@@ -3460,19 +3460,19 @@
         <v>17599</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>12743</v>
+        <v>12524</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>23030</v>
+        <v>22938</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5155497673933772</v>
+        <v>0.515549767393377</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3732830658637064</v>
+        <v>0.3668747754842634</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6746399366590429</v>
+        <v>0.6719410086898224</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>9</v>
@@ -3481,19 +3481,19 @@
         <v>4457</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2075</v>
+        <v>2144</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>7082</v>
+        <v>7317</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.4109630088081482</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1913557429900979</v>
+        <v>0.197724757535424</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.6530500887222568</v>
+        <v>0.6747212169260934</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>33</v>
@@ -3502,19 +3502,19 @@
         <v>22056</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>16682</v>
+        <v>16257</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>28466</v>
+        <v>27717</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.4903351119852735</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3708674526105844</v>
+        <v>0.3614214578811043</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.6328357505999302</v>
+        <v>0.6161747083512592</v>
       </c>
     </row>
     <row r="46">
@@ -3531,19 +3531,19 @@
         <v>8445</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4498</v>
+        <v>4784</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13408</v>
+        <v>13625</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2473958036854277</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1317560216151187</v>
+        <v>0.140155442180346</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3927712989942975</v>
+        <v>0.3991372539428194</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -3552,19 +3552,19 @@
         <v>2100</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4959</v>
+        <v>4909</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1936827498525868</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04262901583057802</v>
+        <v>0.04430769259134929</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4572175470433706</v>
+        <v>0.4526799081989849</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>14</v>
@@ -3573,19 +3573,19 @@
         <v>10546</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5957</v>
+        <v>6245</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>16013</v>
+        <v>16242</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2344462089027544</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1324211046120561</v>
+        <v>0.1388395672485019</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.355992618296069</v>
+        <v>0.3610720877317882</v>
       </c>
     </row>
     <row r="47">
@@ -3602,19 +3602,19 @@
         <v>1965</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5692</v>
+        <v>5305</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.05755274497194452</v>
+        <v>0.05755274497194451</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01386400923011936</v>
+        <v>0.0144376233119392</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1667288375121987</v>
+        <v>0.1554088231658762</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -3623,19 +3623,19 @@
         <v>1202</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3112</v>
+        <v>3610</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1108268630618302</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0</v>
+        <v>0.02953753513543531</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2869454518692718</v>
+        <v>0.3328284205198436</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -3644,19 +3644,19 @@
         <v>3167</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1136</v>
+        <v>1315</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6248</v>
+        <v>7440</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.07039651743394718</v>
+        <v>0.07039651743394719</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02524814904700291</v>
+        <v>0.02924122460308425</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1389050767327861</v>
+        <v>0.165408761498376</v>
       </c>
     </row>
     <row r="48">
@@ -3676,16 +3676,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4775</v>
+        <v>4786</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.04183399103374382</v>
+        <v>0.04183399103374381</v>
       </c>
       <c r="H48" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1398794485590029</v>
+        <v>0.1402033915292777</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2022</v>
+        <v>2546</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04057035760375206</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1864540098318197</v>
+        <v>0.2347704436444813</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3</v>
@@ -3715,19 +3715,19 @@
         <v>1868</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>5396</v>
+        <v>5445</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.04152934365839336</v>
+        <v>0.04152934365839337</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01001803433588606</v>
+        <v>0.00982652773132898</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1199523577010936</v>
+        <v>0.1210420117595752</v>
       </c>
     </row>
     <row r="49">
@@ -3760,16 +3760,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>2061</v>
+        <v>2225</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.03767831150572231</v>
+        <v>0.03767831150572232</v>
       </c>
       <c r="O49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1900565146272549</v>
+        <v>0.2051431001521679</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1</v>
@@ -3781,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2151</v>
+        <v>2246</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.009083804238963669</v>
+        <v>0.009083804238963671</v>
       </c>
       <c r="V49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04782537009591808</v>
+        <v>0.04992185948181159</v>
       </c>
     </row>
     <row r="50">
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>6490</v>
+        <v>6777</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.03914404174565988</v>
+        <v>0.03914404174565987</v>
       </c>
       <c r="H52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1901303536565467</v>
+        <v>0.1985092629749932</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7501</v>
+        <v>6654</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02970686693262736</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1667616898519247</v>
+        <v>0.1479223216156377</v>
       </c>
     </row>
     <row r="53">
@@ -4039,19 +4039,19 @@
         <v>19414</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>13560</v>
+        <v>13666</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>26828</v>
+        <v>27399</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1191252138712577</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.08320473686374195</v>
+        <v>0.08385614571443029</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1646143979536072</v>
+        <v>0.1681183526619544</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>53</v>
@@ -4060,19 +4060,19 @@
         <v>32486</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>25714</v>
+        <v>24839</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>41179</v>
+        <v>40780</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3308398735885988</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.261872536587699</v>
+        <v>0.2529623534345752</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4193618607788285</v>
+        <v>0.4152954800966476</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>86</v>
@@ -4081,19 +4081,19 @@
         <v>51901</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>42163</v>
+        <v>41960</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>63096</v>
+        <v>62941</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1987259292297065</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1614399228603176</v>
+        <v>0.1606624132041738</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2415910595690917</v>
+        <v>0.2410000226377371</v>
       </c>
     </row>
     <row r="55">
@@ -4110,19 +4110,19 @@
         <v>69885</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>58237</v>
+        <v>58261</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>81682</v>
+        <v>80492</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4288134153204922</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3573444159361614</v>
+        <v>0.3574882190381025</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.5011971435261369</v>
+        <v>0.4938959806648035</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>60</v>
@@ -4131,19 +4131,19 @@
         <v>36319</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>29173</v>
+        <v>29451</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>44751</v>
+        <v>44904</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3698716507176455</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2970939033530133</v>
+        <v>0.2999260065234067</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4557420531499676</v>
+        <v>0.4572987433768438</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>156</v>
@@ -4152,19 +4152,19 @@
         <v>106204</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>93485</v>
+        <v>92740</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>120105</v>
+        <v>119717</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.4066524245173994</v>
+        <v>0.4066524245173995</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3579511027775936</v>
+        <v>0.3551003044667724</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4598779080067046</v>
+        <v>0.4583934549952524</v>
       </c>
     </row>
     <row r="56">
@@ -4181,19 +4181,19 @@
         <v>35906</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>26396</v>
+        <v>26909</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>46261</v>
+        <v>47138</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2203193917928488</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1619671102953781</v>
+        <v>0.1651144274797847</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2838569321067777</v>
+        <v>0.2892357337503505</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>22</v>
@@ -4202,19 +4202,19 @@
         <v>18390</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>12228</v>
+        <v>11162</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>26140</v>
+        <v>25774</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1872835957404545</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1245275935016901</v>
+        <v>0.1136694970839561</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2662087904532179</v>
+        <v>0.26248264300026</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>63</v>
@@ -4223,19 +4223,19 @@
         <v>54296</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>42291</v>
+        <v>42850</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>67025</v>
+        <v>68025</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2078985561184687</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1619298506365317</v>
+        <v>0.1640719079980243</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2566368133148339</v>
+        <v>0.2604660691770029</v>
       </c>
     </row>
     <row r="57">
@@ -4252,19 +4252,19 @@
         <v>10480</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>5315</v>
+        <v>5458</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>17934</v>
+        <v>18331</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.06430466349614357</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.03261108813509611</v>
+        <v>0.03348971291337684</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1100438151844376</v>
+        <v>0.1124794168033761</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>4</v>
@@ -4273,19 +4273,19 @@
         <v>3861</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>8816</v>
+        <v>9394</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.03932432407920721</v>
+        <v>0.03932432407920722</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.01189818501017386</v>
+        <v>0.01204936280354866</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.0897783647530189</v>
+        <v>0.09566448285197107</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>15</v>
@@ -4294,19 +4294,19 @@
         <v>14341</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>7797</v>
+        <v>7812</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>22815</v>
+        <v>22238</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.0549125274478427</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.02985329889728064</v>
+        <v>0.02991046135545977</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.08735633690169958</v>
+        <v>0.08514769495781196</v>
       </c>
     </row>
     <row r="58">
@@ -4323,19 +4323,19 @@
         <v>11520</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>6316</v>
+        <v>6222</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>19836</v>
+        <v>18998</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.07068432193736336</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.03875575773217171</v>
+        <v>0.03817554468957834</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1217159293361635</v>
+        <v>0.1165703302451539</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>6</v>
@@ -4344,19 +4344,19 @@
         <v>4705</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>1885</v>
+        <v>1616</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>10501</v>
+        <v>9908</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.0479127887013393</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.01919860519640574</v>
+        <v>0.01645393425496923</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.1069438043366281</v>
+        <v>0.1009054819263905</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>18</v>
@@ -4365,19 +4365,19 @@
         <v>16224</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>9645</v>
+        <v>9618</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>25637</v>
+        <v>25423</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.06212265531580658</v>
+        <v>0.06212265531580659</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.03693108885318894</v>
+        <v>0.03682615775556961</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.09816418602499218</v>
+        <v>0.09734418068038955</v>
       </c>
     </row>
     <row r="59">
@@ -4394,19 +4394,19 @@
         <v>8109</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>3304</v>
+        <v>3495</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>16354</v>
+        <v>16527</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.04975560268735224</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.02027101501433982</v>
+        <v>0.0214478403586277</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.1003451072430652</v>
+        <v>0.1014097912685189</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>4915</v>
+        <v>4870</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01001738375248875</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.05005739571179792</v>
+        <v>0.04959756896371595</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>8</v>
@@ -4436,19 +4436,19 @@
         <v>9092</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>4240</v>
+        <v>4398</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>18037</v>
+        <v>17133</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.03481478253579095</v>
+        <v>0.03481478253579096</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.01623455092666384</v>
+        <v>0.01683871954066555</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.0690620732424535</v>
+        <v>0.06559981841233539</v>
       </c>
     </row>
     <row r="60">
@@ -4465,19 +4465,19 @@
         <v>2964</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>984</v>
+        <v>1103</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>6669</v>
+        <v>6824</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.01818496982597163</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.006034960912234873</v>
+        <v>0.006767627242171826</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.04092044071723665</v>
+        <v>0.04187130494123148</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>2</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>4884</v>
+        <v>5416</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.01475038342026587</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.04974264023649513</v>
+        <v>0.05515605850842496</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>7</v>
@@ -4507,19 +4507,19 @@
         <v>4412</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>1590</v>
+        <v>1863</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>9194</v>
+        <v>8603</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.01689363017467119</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.006088397920298515</v>
+        <v>0.007133068118129318</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.03520443930989568</v>
+        <v>0.03293959923899073</v>
       </c>
     </row>
     <row r="61">
@@ -4583,19 +4583,19 @@
         <v>4696</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1793</v>
+        <v>1720</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>10102</v>
+        <v>9624</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.0288124210685706</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.01100029108947383</v>
+        <v>0.01055367822851264</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.06198307169786459</v>
+        <v>0.05904979643601561</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>0</v>
@@ -4617,19 +4617,19 @@
         <v>4696</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>1791</v>
+        <v>1555</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>10361</v>
+        <v>9764</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.01797949466031391</v>
+        <v>0.01797949466031392</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.006858640031105962</v>
+        <v>0.005953891322240267</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.0396717966073749</v>
+        <v>0.03738684883991891</v>
       </c>
     </row>
     <row r="63">
@@ -4721,19 +4721,19 @@
         <v>83587</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>66158</v>
+        <v>66014</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>103875</v>
+        <v>102636</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.2414636528322998</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.191117181631966</v>
+        <v>0.1906985811032657</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.3000717622253722</v>
+        <v>0.2964921123165679</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>117</v>
@@ -4742,19 +4742,19 @@
         <v>95036</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>82010</v>
+        <v>81716</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>110924</v>
+        <v>110253</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.406756070124796</v>
+        <v>0.4067560701247961</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.3510053440013579</v>
+        <v>0.3497481794348984</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.4747596192170742</v>
+        <v>0.4718867815779662</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>190</v>
@@ -4763,19 +4763,19 @@
         <v>178622</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>155258</v>
+        <v>154461</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>203621</v>
+        <v>202590</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.3080705473422241</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.2677743670632817</v>
+        <v>0.2663986198983317</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.3511855840954518</v>
+        <v>0.3494071766970051</v>
       </c>
     </row>
     <row r="65">
@@ -4792,19 +4792,19 @@
         <v>100909</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>83445</v>
+        <v>82380</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>120130</v>
+        <v>119503</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.2915040327563918</v>
+        <v>0.2915040327563919</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.2410534651825347</v>
+        <v>0.2379762677668678</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.3470300876927539</v>
+        <v>0.3452168080647971</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>70</v>
@@ -4813,19 +4813,19 @@
         <v>54182</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>42873</v>
+        <v>43406</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>66299</v>
+        <v>66524</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.2319007471205532</v>
+        <v>0.2319007471205531</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.1834965379037373</v>
+        <v>0.1857801529424203</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.2837604346623238</v>
+        <v>0.2847246819463466</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>160</v>
@@ -4834,19 +4834,19 @@
         <v>155091</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>133499</v>
+        <v>132484</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>177563</v>
+        <v>176159</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.2674860540504115</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.2302464069346702</v>
+        <v>0.228496000296896</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.3062436201937384</v>
+        <v>0.3038223736933903</v>
       </c>
     </row>
     <row r="66">
@@ -4863,19 +4863,19 @@
         <v>81747</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>62912</v>
+        <v>62996</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>102345</v>
+        <v>101846</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>0.2361500829354346</v>
+        <v>0.2361500829354347</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1817396853383072</v>
+        <v>0.1819824897479457</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.295651317064122</v>
+        <v>0.2942115031509366</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>59</v>
@@ -4884,19 +4884,19 @@
         <v>47199</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>37325</v>
+        <v>36992</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>59713</v>
+        <v>60017</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.202012895862596</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.1597539001857247</v>
+        <v>0.1583253006073278</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.2555751719578497</v>
+        <v>0.2568752124967764</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>118</v>
@@ -4905,19 +4905,19 @@
         <v>128946</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>105997</v>
+        <v>108225</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>151302</v>
+        <v>153698</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.2223940253045361</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.1828132508697434</v>
+        <v>0.1866551340662565</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.2609516125684039</v>
+        <v>0.2650828402273835</v>
       </c>
     </row>
     <row r="67">
@@ -4934,19 +4934,19 @@
         <v>36011</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>23852</v>
+        <v>24280</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>51135</v>
+        <v>50030</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.1040279228345105</v>
+        <v>0.1040279228345106</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.06890230718770302</v>
+        <v>0.07013844600595481</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.1477163008964338</v>
+        <v>0.1445243866169706</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>20</v>
@@ -4955,19 +4955,19 @@
         <v>17579</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>10890</v>
+        <v>10785</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>26440</v>
+        <v>26973</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.07524063230687238</v>
+        <v>0.07524063230687236</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.0466097619324782</v>
+        <v>0.04616106338076367</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.1131641330898429</v>
+        <v>0.1154436677028292</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>49</v>
@@ -4976,19 +4976,19 @@
         <v>53590</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>39710</v>
+        <v>38864</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>69690</v>
+        <v>71856</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.09242768094314836</v>
+        <v>0.09242768094314835</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.06848754166620565</v>
+        <v>0.06702876474042314</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.1201943142203276</v>
+        <v>0.1239310511301504</v>
       </c>
     </row>
     <row r="68">
@@ -5005,19 +5005,19 @@
         <v>23362</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>13678</v>
+        <v>13279</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>38370</v>
+        <v>37393</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.067487488491663</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.03951286052840638</v>
+        <v>0.03835917322447629</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.1108417960474643</v>
+        <v>0.1080194964225578</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>8</v>
@@ -5026,19 +5026,19 @@
         <v>7302</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>3582</v>
+        <v>3453</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>15344</v>
+        <v>17297</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.03125416592056277</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.01533082238436283</v>
+        <v>0.01478027883344948</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.06567381629044139</v>
+        <v>0.0740302286119387</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>25</v>
@@ -5047,19 +5047,19 @@
         <v>30664</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>20247</v>
+        <v>20794</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>46201</v>
+        <v>48504</v>
       </c>
       <c r="U68" s="6" t="n">
-        <v>0.05288676370483463</v>
+        <v>0.05288676370483462</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.03492052534961862</v>
+        <v>0.03586411530637285</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.07968281937591853</v>
+        <v>0.08365450530842759</v>
       </c>
     </row>
     <row r="69">
@@ -5076,19 +5076,19 @@
         <v>12832</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>7038</v>
+        <v>6943</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>21764</v>
+        <v>21659</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.03707009244337574</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.02033158569358579</v>
+        <v>0.02005791179174302</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.06287209632743677</v>
+        <v>0.06256839774870027</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>8</v>
@@ -5097,19 +5097,19 @@
         <v>10254</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>4341</v>
+        <v>4523</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>22289</v>
+        <v>20745</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.0438891650553643</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.01858082830539264</v>
+        <v>0.01936055562086183</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.09539877337223415</v>
+        <v>0.08878930429270129</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>20</v>
@@ -5118,19 +5118,19 @@
         <v>23087</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>14865</v>
+        <v>15211</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>38436</v>
+        <v>35390</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.03981793325520502</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.02563796546514587</v>
+        <v>0.0262346957838772</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.06629076917481791</v>
+        <v>0.06103691646329646</v>
       </c>
     </row>
     <row r="70">
@@ -5160,19 +5160,19 @@
         <v>2090</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>5775</v>
+        <v>5696</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.008946323609255276</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.002757903095606568</v>
+        <v>0.002787411027755792</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.02471699302950065</v>
+        <v>0.02438094089833669</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>3</v>
@@ -5181,19 +5181,19 @@
         <v>2090</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>5650</v>
+        <v>5559</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.003605046393863599</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.001105422273311854</v>
+        <v>0.001092113204245606</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.009744697237890888</v>
+        <v>0.009587596981628909</v>
       </c>
     </row>
     <row r="71">
@@ -5210,19 +5210,19 @@
         <v>3455</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>10274</v>
+        <v>10169</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.009981124348047985</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.002689866400439497</v>
+        <v>0.002741233984126526</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.02967906710574641</v>
+        <v>0.02937646220141465</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>0</v>
@@ -5244,19 +5244,19 @@
         <v>3455</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>9652</v>
+        <v>8803</v>
       </c>
       <c r="U71" s="6" t="n">
-        <v>0.005959090503843031</v>
+        <v>0.005959090503843029</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.001626460097375756</v>
+        <v>0.001651755960238519</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.01664700847304244</v>
+        <v>0.01518298272605221</v>
       </c>
     </row>
     <row r="72">
@@ -5273,19 +5273,19 @@
         <v>4263</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>1136</v>
+        <v>1080</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>11088</v>
+        <v>10526</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.0123156033582764</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.003280458721585224</v>
+        <v>0.003118955171368225</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.03203213149142632</v>
+        <v>0.03040829968344357</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>0</v>
@@ -5307,19 +5307,19 @@
         <v>4263</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>9910</v>
+        <v>10298</v>
       </c>
       <c r="U72" s="6" t="n">
-        <v>0.007352858501933717</v>
+        <v>0.007352858501933716</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.001862665724863849</v>
+        <v>0.00189642286765943</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.01709251869419521</v>
+        <v>0.01776139589259226</v>
       </c>
     </row>
     <row r="73">
@@ -5411,19 +5411,19 @@
         <v>16665</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>9196</v>
+        <v>10050</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>28119</v>
+        <v>27557</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>0.05332831623854962</v>
+        <v>0.05332831623854963</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.02942603143351572</v>
+        <v>0.03215973930011468</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.08997987984672801</v>
+        <v>0.0881834013663719</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>7</v>
@@ -5432,19 +5432,19 @@
         <v>5446</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>2348</v>
+        <v>2299</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>10881</v>
+        <v>10957</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.04737797594284592</v>
+        <v>0.04737797594284593</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.02042235413486112</v>
+        <v>0.02000126036287131</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.09465770088430554</v>
+        <v>0.09531207033777919</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>22</v>
@@ -5453,19 +5453,19 @@
         <v>22111</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>13638</v>
+        <v>14559</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>33451</v>
+        <v>33399</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.05172810855168765</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.03190550487215787</v>
+        <v>0.0340603478334066</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.07825729708482741</v>
+        <v>0.0781340326743281</v>
       </c>
     </row>
     <row r="75">
@@ -5482,19 +5482,19 @@
         <v>125058</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>105631</v>
+        <v>106709</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>143550</v>
+        <v>142858</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.400187305871346</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.3380205164614533</v>
+        <v>0.3414696643866522</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.4593622876726304</v>
+        <v>0.4571481686049315</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>71</v>
@@ -5503,19 +5503,19 @@
         <v>58751</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>49401</v>
+        <v>48297</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>69256</v>
+        <v>68883</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.511083390607237</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.4297449852056578</v>
+        <v>0.420138779094171</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.602467968389909</v>
+        <v>0.5992218098477952</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>198</v>
@@ -5524,19 +5524,19 @@
         <v>183809</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>165110</v>
+        <v>165165</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>205111</v>
+        <v>205261</v>
       </c>
       <c r="U75" s="6" t="n">
-        <v>0.4300102669825616</v>
+        <v>0.4300102669825615</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.3862651641718229</v>
+        <v>0.3863924743387653</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.4798456235276764</v>
+        <v>0.4801950170560677</v>
       </c>
     </row>
     <row r="76">
@@ -5553,19 +5553,19 @@
         <v>101008</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>83703</v>
+        <v>84277</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>119246</v>
+        <v>116584</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.3232280725873611</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.267849620753432</v>
+        <v>0.2696860534721862</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.3815894217913135</v>
+        <v>0.3730688457388206</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>34</v>
@@ -5574,19 +5574,19 @@
         <v>28594</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>21337</v>
+        <v>19855</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>38505</v>
+        <v>38153</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.2487386946959454</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.1856128694078381</v>
+        <v>0.1727173656861785</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.3349636729548332</v>
+        <v>0.3318978326637148</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>131</v>
@@ -5595,19 +5595,19 @@
         <v>129602</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>112503</v>
+        <v>109792</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>150891</v>
+        <v>148844</v>
       </c>
       <c r="U76" s="6" t="n">
-        <v>0.3031958611225018</v>
+        <v>0.3031958611225019</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.2631934863258546</v>
+        <v>0.2568517589568477</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.3530004280528209</v>
+        <v>0.3482124225660554</v>
       </c>
     </row>
     <row r="77">
@@ -5624,19 +5624,19 @@
         <v>23004</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>14606</v>
+        <v>15087</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>33150</v>
+        <v>33888</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.07361218724467088</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.04674062792568093</v>
+        <v>0.0482785056040615</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.1060791517248332</v>
+        <v>0.1084432620536366</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>5</v>
@@ -5645,19 +5645,19 @@
         <v>3690</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>1416</v>
+        <v>1217</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>7836</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>0.03210208154674209</v>
+        <v>0.0321020815467421</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.01231830065674507</v>
+        <v>0.01058860475299465</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.06816862959247708</v>
+        <v>0.06817073460539258</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>28</v>
@@ -5666,19 +5666,19 @@
         <v>26694</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>18508</v>
+        <v>17432</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>37710</v>
+        <v>36608</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.06244899540701428</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.0432990057490047</v>
+        <v>0.04078151715170999</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.08822021525667927</v>
+        <v>0.08564224990097768</v>
       </c>
     </row>
     <row r="78">
@@ -5695,19 +5695,19 @@
         <v>21061</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>11848</v>
+        <v>12261</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>35371</v>
+        <v>34999</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.06739524098039791</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.03791457144893682</v>
+        <v>0.03923469576847914</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.1131866968449978</v>
+        <v>0.111995618801949</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>6</v>
@@ -5716,19 +5716,19 @@
         <v>5057</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>2178</v>
+        <v>2097</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>11458</v>
+        <v>11113</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.04399108001633151</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.01894349718350485</v>
+        <v>0.01824438098426405</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.09967211257642279</v>
+        <v>0.09667737452360313</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>22</v>
@@ -5737,19 +5737,19 @@
         <v>26118</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>16128</v>
+        <v>16296</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>39605</v>
+        <v>38422</v>
       </c>
       <c r="U78" s="6" t="n">
-        <v>0.06110122813103282</v>
+        <v>0.06110122813103281</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.03773146126388855</v>
+        <v>0.03812374565515533</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.09265436842049496</v>
+        <v>0.08988514303448077</v>
       </c>
     </row>
     <row r="79">
@@ -5766,19 +5766,19 @@
         <v>17408</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>10392</v>
+        <v>10175</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>27331</v>
+        <v>28076</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.05570634017459947</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.03325513794697549</v>
+        <v>0.03256029623939454</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.08746036967930133</v>
+        <v>0.0898429384857813</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>8</v>
@@ -5787,19 +5787,19 @@
         <v>7443</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>3415</v>
+        <v>3554</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>14975</v>
+        <v>16846</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.06474747759764778</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.02970503253871621</v>
+        <v>0.03091833928936144</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.1302734047964187</v>
+        <v>0.1465419516533706</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>24</v>
@@ -5808,19 +5808,19 @@
         <v>24851</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>15497</v>
+        <v>16736</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>35935</v>
+        <v>37467</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.05813774693175308</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.03625489176794359</v>
+        <v>0.03915302972077707</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.08406861530560113</v>
+        <v>0.08765236411410912</v>
       </c>
     </row>
     <row r="80">
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>6166</v>
+        <v>6771</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.005986976570247098</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.01972981968793954</v>
+        <v>0.02166863051670685</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>6718</v>
+        <v>7095</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.01162904941187021</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.05844314609351</v>
+        <v>0.06172286308651557</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>3</v>
@@ -5879,19 +5879,19 @@
         <v>3208</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>9521</v>
+        <v>8944</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.0075042827884342</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.001717135564109037</v>
+        <v>0.00170284185125126</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.02227279012224812</v>
+        <v>0.02092401577082853</v>
       </c>
     </row>
     <row r="81">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>8411</v>
+        <v>10173</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.005849827369171764</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.02691505786879895</v>
+        <v>0.03255460061631447</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>9278</v>
+        <v>12115</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.004276650330923538</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.02170624576989432</v>
+        <v>0.02834152813084801</v>
       </c>
     </row>
     <row r="82">
@@ -5971,19 +5971,19 @@
         <v>4596</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1154</v>
+        <v>1123</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>11925</v>
+        <v>12317</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.0147057329636561</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.00369209645937259</v>
+        <v>0.003593966987675586</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.03816071664965925</v>
+        <v>0.03941519528064877</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>5</v>
@@ -5992,19 +5992,19 @@
         <v>4636</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>1518</v>
+        <v>1540</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>10697</v>
+        <v>11316</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.04033025018137999</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.01320678974870175</v>
+        <v>0.01339587462887768</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.09305253236488178</v>
+        <v>0.09844216777261887</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>9</v>
@@ -6013,19 +6013,19 @@
         <v>9232</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>4094</v>
+        <v>3998</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>17841</v>
+        <v>17487</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.02159685975409112</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.009577235302164712</v>
+        <v>0.009352861575105327</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.04173775803253665</v>
+        <v>0.04091066468221011</v>
       </c>
     </row>
     <row r="83">
@@ -6117,19 +6117,19 @@
         <v>351699</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>313865</v>
+        <v>314638</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>391938</v>
+        <v>393141</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.2102711713884199</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.187651166168025</v>
+        <v>0.1881134146452844</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.234328713646878</v>
+        <v>0.2350483824109751</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>521</v>
@@ -6138,19 +6138,19 @@
         <v>365973</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>338100</v>
+        <v>337845</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>392525</v>
+        <v>391855</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.4047639016253123</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.3739366568341251</v>
+        <v>0.3736538352065686</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.434130010433148</v>
+        <v>0.4333892271482844</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>859</v>
@@ -6159,19 +6159,19 @@
         <v>717672</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>659966</v>
+        <v>674547</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>760980</v>
+        <v>770932</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.2785171321519571</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.2561222360054872</v>
+        <v>0.2617809412619241</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.2953240318678694</v>
+        <v>0.2991864070789695</v>
       </c>
     </row>
     <row r="85">
@@ -6188,19 +6188,19 @@
         <v>684819</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>639323</v>
+        <v>639748</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>731841</v>
+        <v>727593</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.4094346896149165</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.382233446876589</v>
+        <v>0.382488064093283</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.437547515125859</v>
+        <v>0.4350082202881795</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>396</v>
@@ -6209,19 +6209,19 @@
         <v>290144</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>263572</v>
+        <v>264372</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>316763</v>
+        <v>316225</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.320897590135988</v>
+        <v>0.3208975901359879</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.2915089331000998</v>
+        <v>0.2923931300004675</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.3503377452865236</v>
+        <v>0.3497426730812738</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>1077</v>
@@ -6230,19 +6230,19 @@
         <v>974964</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>926811</v>
+        <v>926564</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>1027030</v>
+        <v>1027909</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.3783677216629688</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.3596803249838624</v>
+        <v>0.3595845516559409</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.3985737030475421</v>
+        <v>0.3989149752780309</v>
       </c>
     </row>
     <row r="86">
@@ -6259,19 +6259,19 @@
         <v>359318</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>323559</v>
+        <v>323435</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>400817</v>
+        <v>397415</v>
       </c>
       <c r="G86" s="6" t="n">
-        <v>0.214826474165437</v>
+        <v>0.2148264741654371</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.1934469755591343</v>
+        <v>0.1933730302977586</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.2396375158214717</v>
+        <v>0.237603830246391</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>172</v>
@@ -6280,19 +6280,19 @@
         <v>147412</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>127836</v>
+        <v>127601</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>170135</v>
+        <v>173493</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.1630362557576519</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.1413856945480666</v>
+        <v>0.1411262548764362</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.1881684248551403</v>
+        <v>0.191882207799674</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>487</v>
@@ -6301,19 +6301,19 @@
         <v>506730</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>464884</v>
+        <v>459007</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>550805</v>
+        <v>547074</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.1966536961439257</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.180414023807672</v>
+        <v>0.1781331866199548</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.2137587376352942</v>
+        <v>0.2123107944644624</v>
       </c>
     </row>
     <row r="87">
@@ -6330,19 +6330,19 @@
         <v>115279</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>93056</v>
+        <v>91561</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>141865</v>
+        <v>139188</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.06892193484015509</v>
+        <v>0.0689219348401551</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.05563566142686358</v>
+        <v>0.05474187832391799</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.08481694569115693</v>
+        <v>0.08321693640385493</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>43</v>
@@ -6351,19 +6351,19 @@
         <v>36449</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>25872</v>
+        <v>25444</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>49892</v>
+        <v>48975</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.04031282309392393</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.02861397905528913</v>
+        <v>0.02814108373775883</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.05518059773773687</v>
+        <v>0.05416639806946592</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>143</v>
@@ -6372,19 +6372,19 @@
         <v>151728</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>126165</v>
+        <v>128751</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>179715</v>
+        <v>181166</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.0588832238028076</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.04896259108303236</v>
+        <v>0.04996622199315807</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.06974460593082754</v>
+        <v>0.07030767697546417</v>
       </c>
     </row>
     <row r="88">
@@ -6401,19 +6401,19 @@
         <v>73362</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>56209</v>
+        <v>54854</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>96938</v>
+        <v>98000</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.04386131115660632</v>
+        <v>0.04386131115660631</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.03360577741538257</v>
+        <v>0.03279595300830863</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.05795636550689296</v>
+        <v>0.05859150598600831</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>30</v>
@@ -6422,19 +6422,19 @@
         <v>27966</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>18359</v>
+        <v>18960</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>40840</v>
+        <v>41378</v>
       </c>
       <c r="N88" s="6" t="n">
         <v>0.03093057918135106</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.02030492278951095</v>
+        <v>0.02096963553644898</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.04516925897345717</v>
+        <v>0.0457636116555819</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>89</v>
@@ -6443,19 +6443,19 @@
         <v>101329</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>79620</v>
+        <v>81643</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>124927</v>
+        <v>124105</v>
       </c>
       <c r="U88" s="6" t="n">
         <v>0.03932401957788131</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.03089920606719212</v>
+        <v>0.03168452292820136</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.04848212320575585</v>
+        <v>0.04816329328196611</v>
       </c>
     </row>
     <row r="89">
@@ -6472,19 +6472,19 @@
         <v>55075</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>40225</v>
+        <v>41489</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>74587</v>
+        <v>74435</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.0329275750844608</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.02404931161071296</v>
+        <v>0.0248048993473278</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.04459357438548876</v>
+        <v>0.04450264895565707</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>26</v>
@@ -6493,19 +6493,19 @@
         <v>25710</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>17335</v>
+        <v>17301</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>38895</v>
+        <v>40647</v>
       </c>
       <c r="N89" s="6" t="n">
-        <v>0.02843468306530555</v>
+        <v>0.02843468306530556</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.01917193080048829</v>
+        <v>0.01913437627409454</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.04301736764626221</v>
+        <v>0.04495482465758718</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>74</v>
@@ -6514,19 +6514,19 @@
         <v>80784</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>62887</v>
+        <v>64026</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>104788</v>
+        <v>105746</v>
       </c>
       <c r="U89" s="6" t="n">
         <v>0.03135105480999804</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.02440551236397031</v>
+        <v>0.0248473132460808</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.04066649957496769</v>
+        <v>0.04103833664603607</v>
       </c>
     </row>
     <row r="90">
@@ -6543,19 +6543,19 @@
         <v>5682</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>2450</v>
+        <v>2390</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>10962</v>
+        <v>11335</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>0.00339692068255142</v>
+        <v>0.003396920682551421</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.001464968369948175</v>
+        <v>0.001429109011368573</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.006554039640688466</v>
+        <v>0.006777027302294038</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>6</v>
@@ -6564,19 +6564,19 @@
         <v>4875</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>1719</v>
+        <v>2016</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>10077</v>
+        <v>10685</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.005392199098678801</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.00190152260306493</v>
+        <v>0.002230050992326487</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.01114501048426453</v>
+        <v>0.01181774810556111</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>14</v>
@@ -6585,19 +6585,19 @@
         <v>10557</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>6078</v>
+        <v>5934</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>18113</v>
+        <v>17632</v>
       </c>
       <c r="U90" s="6" t="n">
-        <v>0.00409704809776898</v>
+        <v>0.004097048097768981</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.00235861467508351</v>
+        <v>0.002302698365413743</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.007029447076320031</v>
+        <v>0.006842815249437167</v>
       </c>
     </row>
     <row r="91">
@@ -6614,19 +6614,19 @@
         <v>6811</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>2644</v>
+        <v>2780</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>14539</v>
+        <v>15051</v>
       </c>
       <c r="G91" s="6" t="n">
-        <v>0.004072086407229872</v>
+        <v>0.004072086407229873</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.001581017250056394</v>
+        <v>0.001662109649397314</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.008692493565067041</v>
+        <v>0.008998540047355884</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>0</v>
@@ -6651,16 +6651,16 @@
         <v>2509</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>15291</v>
+        <v>16530</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.002643223493767473</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.0009735929402089772</v>
+        <v>0.0009738536063184939</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.00593416764288508</v>
+        <v>0.006414949650279416</v>
       </c>
     </row>
     <row r="92">
@@ -6677,19 +6677,19 @@
         <v>20553</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>12740</v>
+        <v>13191</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>31372</v>
+        <v>31163</v>
       </c>
       <c r="G92" s="6" t="n">
         <v>0.01228783666022304</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.007616683754732759</v>
+        <v>0.007886656711370567</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.01875618508999986</v>
+        <v>0.01863174889443967</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>7</v>
@@ -6698,19 +6698,19 @@
         <v>5635</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>2368</v>
+        <v>2514</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>12944</v>
+        <v>12451</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>0.006231968041788436</v>
+        <v>0.006231968041788437</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.002618525033077978</v>
+        <v>0.002780778044981141</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.01431615009096035</v>
+        <v>0.01377026376070766</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>30</v>
@@ -6719,19 +6719,19 @@
         <v>26187</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>17187</v>
+        <v>17695</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>36624</v>
+        <v>37935</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.01016288025892497</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.006670165705510878</v>
+        <v>0.006867335059529469</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.01421334324736214</v>
+        <v>0.01472192713846223</v>
       </c>
     </row>
     <row r="93">
